--- a/Menu Imposto de renda.xlsx
+++ b/Menu Imposto de renda.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="8535" windowHeight="5145" tabRatio="0" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="8535" windowHeight="5145" tabRatio="262"/>
   </bookViews>
   <sheets>
     <sheet name="Títular" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
@@ -499,38 +499,14 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -548,15 +524,62 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="173" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -564,7 +587,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -582,6 +611,10 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2074,12 +2107,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="C7:E24" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="C7:E24" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
   <autoFilter ref="C7:E24"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATA"/>
-    <tableColumn id="2" name="CATEGORIA" dataDxfId="0"/>
-    <tableColumn id="3" name="VALOR"/>
+    <tableColumn id="1" name="DATA" dataDxfId="3"/>
+    <tableColumn id="2" name="CATEGORIA" dataDxfId="2"/>
+    <tableColumn id="3" name="VALOR" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2370,10 +2403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Plan1"/>
   <dimension ref="A3:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2384,7 +2418,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6" ht="20.25" thickBot="1">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2"/>
@@ -2398,119 +2432,120 @@
       <c r="E4" s="4"/>
     </row>
     <row r="7" spans="3:6" ht="16.5">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="3:6" ht="16.5">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="17">
         <v>12312312300</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="16.5">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="18">
         <v>37162</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="16.5">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="16">
         <v>317113888</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="16.5">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="16.5">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="16.5">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="16.5">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="19">
         <v>987654321</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="16.5">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="20">
         <v>7932125789</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="16.5">
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="21">
         <v>79999282138</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="16.5">
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="16.5">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="16.5">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="16.5">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="16" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C4:E4"/>
   </mergeCells>
@@ -2530,10 +2565,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Plan2"/>
   <dimension ref="A3:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D20" activeCellId="2" sqref="D10:D12 D15:D17 D20:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2543,10 +2579,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5" ht="20.25" thickBot="1">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="3:5" ht="21" customHeight="1" thickTop="1">
@@ -2554,108 +2590,109 @@
         <v>24</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="6" spans="3:5" ht="16.5">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="16.5">
-      <c r="C7" s="20">
+      <c r="C7" s="12">
         <f>SUM(D11,D16,D21)</f>
         <v>1087100</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="16.5">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="16.5">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="23">
         <v>500000</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="16.5">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="16.5">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="16.5">
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="23">
         <v>230100</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="16.5">
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="16.5">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="16.5">
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="23">
         <v>357000</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="16.5">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="16" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -2669,10 +2706,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Plan3"/>
   <dimension ref="A3:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2682,10 +2720,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5" ht="20.25" thickBot="1">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="3:5" ht="21" customHeight="1" thickTop="1">
@@ -2693,23 +2731,23 @@
         <v>90</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="3:5" ht="16.5">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2717,66 +2755,95 @@
       <c r="C8" s="24">
         <v>45818</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="26">
         <v>3000</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="16.5">
       <c r="C9" s="27"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="3:5" ht="16.5">
-      <c r="D10" s="22"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="3:5" ht="16.5">
-      <c r="D11" s="22"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="3:5" ht="16.5">
-      <c r="D12" s="22"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="3:5" ht="16.5">
-      <c r="D13" s="22"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="3:5" ht="16.5">
-      <c r="D14" s="22"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="3:5" ht="16.5">
-      <c r="D15" s="22"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="3:5" ht="16.5">
-      <c r="D16" s="22"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="3:5" ht="16.5">
-      <c r="D17" s="22"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="3:5" ht="16.5">
-      <c r="D18" s="22"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="3:5" ht="16.5">
-      <c r="D19" s="22"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="3:5" ht="16.5">
-      <c r="D20" s="22"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="3:5" ht="16.5">
-      <c r="D21" s="22"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="3:5" ht="16.5">
-      <c r="D22" s="22"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="3:5" ht="16.5">
-      <c r="D23" s="22"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="3:5" ht="16.5">
-      <c r="C24" s="28"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="28"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="30"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -2798,6 +2865,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Plan4"/>
   <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
@@ -2810,7 +2878,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
     </row>
